--- a/regions/5/biznes seqtori/saqmianobis mikhedvit_nace rev.2.xlsx
+++ b/regions/5/biznes seqtori/saqmianobis mikhedvit_nace rev.2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3319AA8-B094-41EA-ACB9-E38AF6E14E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="26">
-  <si>
-    <t>ბიზენს სექტორი</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="26">
   <si>
     <t>დამამუშავებელი მრეწველობა</t>
   </si>
@@ -93,11 +91,14 @@
   <si>
     <t>...</t>
   </si>
+  <si>
+    <t>ბიზნეს სექტორი</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -357,6 +358,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -392,6 +410,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -567,10 +602,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -581,7 +618,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -625,7 +662,7 @@
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -714,13 +751,17 @@
       <c r="P5" s="9">
         <v>2020</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="Q5" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="9">
+        <v>2022</v>
+      </c>
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="14">
         <v>140.30000000000001</v>
@@ -767,13 +808,17 @@
       <c r="P6" s="16">
         <v>1247.8</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="Q6" s="16">
+        <v>1449.7</v>
+      </c>
+      <c r="R6" s="16">
+        <v>1357.9</v>
+      </c>
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="17">
         <v>1.4</v>
@@ -820,13 +865,17 @@
       <c r="P7" s="18">
         <v>4.5</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="Q7" s="18">
+        <v>5.2</v>
+      </c>
+      <c r="R7" s="18">
+        <v>6.7</v>
+      </c>
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="17">
         <v>2.5</v>
@@ -873,13 +922,17 @@
       <c r="P8" s="18">
         <v>11.4</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="Q8" s="18">
+        <v>11.1</v>
+      </c>
+      <c r="R8" s="18">
+        <v>11.4</v>
+      </c>
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="17">
         <v>68.2</v>
@@ -926,13 +979,17 @@
       <c r="P9" s="18">
         <v>542.1</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="Q9" s="18">
+        <v>676.1</v>
+      </c>
+      <c r="R9" s="18">
+        <v>499.7</v>
+      </c>
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="17">
         <v>4.5999999999999996</v>
@@ -971,21 +1028,25 @@
         <v>48.8</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="R10" s="18">
+        <v>83.9</v>
+      </c>
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="17">
         <v>1.4</v>
@@ -1024,21 +1085,25 @@
         <v>1.8</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="17">
         <v>16.600000000000001</v>
@@ -1085,13 +1150,17 @@
       <c r="P12" s="18">
         <v>167.6</v>
       </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="Q12" s="18">
+        <v>177.3</v>
+      </c>
+      <c r="R12" s="18">
+        <v>173.9</v>
+      </c>
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="17">
         <v>34.799999999999997</v>
@@ -1138,13 +1207,17 @@
       <c r="P13" s="18">
         <v>376.9</v>
       </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="Q13" s="18">
+        <v>388.5</v>
+      </c>
+      <c r="R13" s="18">
+        <v>425.1</v>
+      </c>
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="17">
         <v>0.8</v>
@@ -1191,13 +1264,17 @@
       <c r="P14" s="18">
         <v>13</v>
       </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="Q14" s="18">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="R14" s="18">
+        <v>29.1</v>
+      </c>
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="17">
         <v>4.5999999999999996</v>
@@ -1244,13 +1321,17 @@
       <c r="P15" s="18">
         <v>43.9</v>
       </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="Q15" s="18">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="R15" s="18">
+        <v>70</v>
+      </c>
       <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="17">
         <v>1.1000000000000001</v>
@@ -1297,13 +1378,17 @@
       <c r="P16" s="18">
         <v>2.5</v>
       </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="Q16" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="R16" s="18">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="S16" s="2"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="17">
         <v>0.1</v>
@@ -1350,13 +1435,17 @@
       <c r="P17" s="18">
         <v>4.7</v>
       </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="Q17" s="18">
+        <v>7.2</v>
+      </c>
+      <c r="R17" s="18">
+        <v>8.4</v>
+      </c>
       <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="17">
         <v>0.3</v>
@@ -1403,13 +1492,17 @@
       <c r="P18" s="18">
         <v>5.4</v>
       </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="Q18" s="18">
+        <v>5.9</v>
+      </c>
+      <c r="R18" s="18">
+        <v>16.899999999999999</v>
+      </c>
       <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="17">
         <v>0.3</v>
@@ -1456,13 +1549,17 @@
       <c r="P19" s="17">
         <v>2.1</v>
       </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="Q19" s="17">
+        <v>5</v>
+      </c>
+      <c r="R19" s="17">
+        <v>5</v>
+      </c>
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="17">
         <v>0.1</v>
@@ -1509,10 +1606,16 @@
       <c r="P20" s="17">
         <v>1</v>
       </c>
+      <c r="Q20" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R20" s="17">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="17">
         <v>3.4</v>
@@ -1559,19 +1662,25 @@
       <c r="P21" s="17">
         <v>6</v>
       </c>
+      <c r="Q21" s="17">
+        <v>10.7</v>
+      </c>
+      <c r="R21" s="17">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="C22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" s="17">
         <v>0.1</v>
@@ -1580,13 +1689,13 @@
         <v>0.1</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="17">
         <v>5</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="17">
         <v>0.9</v>
@@ -1609,16 +1718,22 @@
       <c r="P22" s="17">
         <v>4.9000000000000004</v>
       </c>
+      <c r="Q22" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="R22" s="17">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="17">
         <v>0</v>
@@ -1630,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="17">
         <v>0.2</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" s="17">
         <v>0.1</v>
@@ -1658,6 +1773,12 @@
       </c>
       <c r="P23" s="17">
         <v>0.3</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>1</v>
+      </c>
+      <c r="R23" s="17">
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
@@ -1683,7 +1804,7 @@
     </row>
     <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1772,13 +1893,17 @@
       <c r="P27" s="9">
         <v>2020</v>
       </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="Q27" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R27" s="9">
+        <v>2022</v>
+      </c>
       <c r="S27" s="2"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="14">
         <v>103.2</v>
@@ -1825,13 +1950,17 @@
       <c r="P28" s="16">
         <v>867.9</v>
       </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="Q28" s="16">
+        <v>1073.2</v>
+      </c>
+      <c r="R28" s="16">
+        <v>998.8</v>
+      </c>
       <c r="S28" s="2"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="17">
         <v>1.4</v>
@@ -1878,13 +2007,17 @@
       <c r="P29" s="18">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="Q29" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="R29" s="18">
+        <v>6.6</v>
+      </c>
       <c r="S29" s="2"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="17">
         <v>3</v>
@@ -1931,13 +2064,17 @@
       <c r="P30" s="18">
         <v>11.5</v>
       </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+      <c r="Q30" s="18">
+        <v>12</v>
+      </c>
+      <c r="R30" s="18">
+        <v>11.4</v>
+      </c>
       <c r="S30" s="2"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="17">
         <v>64.599999999999994</v>
@@ -1984,13 +2121,17 @@
       <c r="P31" s="18">
         <v>484.9</v>
       </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="Q31" s="18">
+        <v>637.70000000000005</v>
+      </c>
+      <c r="R31" s="18">
+        <v>481.2</v>
+      </c>
       <c r="S31" s="2"/>
     </row>
     <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="17">
         <v>3.3</v>
@@ -2029,21 +2170,25 @@
         <v>42.6</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="Q32" s="18">
+        <v>56.2</v>
+      </c>
+      <c r="R32" s="18">
+        <v>68.900000000000006</v>
+      </c>
       <c r="S32" s="2"/>
     </row>
     <row r="33" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="17">
         <v>1.6</v>
@@ -2082,21 +2227,25 @@
         <v>2.4</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="R33" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="17">
         <v>13.6</v>
@@ -2143,13 +2292,17 @@
       <c r="P34" s="18">
         <v>181.3</v>
       </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="Q34" s="18">
+        <v>186.4</v>
+      </c>
+      <c r="R34" s="18">
+        <v>196</v>
+      </c>
       <c r="S34" s="2"/>
     </row>
     <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="17">
         <v>4.2</v>
@@ -2196,13 +2349,17 @@
       <c r="P35" s="18">
         <v>47.5</v>
       </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
+      <c r="Q35" s="18">
+        <v>51.4</v>
+      </c>
+      <c r="R35" s="18">
+        <v>84.4</v>
+      </c>
       <c r="S35" s="2"/>
     </row>
     <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="17">
         <v>1</v>
@@ -2249,13 +2406,17 @@
       <c r="P36" s="18">
         <v>14.8</v>
       </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
+      <c r="Q36" s="18">
+        <v>20.6</v>
+      </c>
+      <c r="R36" s="18">
+        <v>32</v>
+      </c>
       <c r="S36" s="2"/>
     </row>
     <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="17">
         <v>4.5</v>
@@ -2302,13 +2463,17 @@
       <c r="P37" s="18">
         <v>47</v>
       </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
+      <c r="Q37" s="18">
+        <v>67.5</v>
+      </c>
+      <c r="R37" s="18">
+        <v>69.5</v>
+      </c>
       <c r="S37" s="2"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="17">
         <v>0.1</v>
@@ -2355,13 +2520,17 @@
       <c r="P38" s="18">
         <v>2.5</v>
       </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
+      <c r="Q38" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="R38" s="18">
+        <v>4.3</v>
+      </c>
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="17">
         <v>0.1</v>
@@ -2408,13 +2577,17 @@
       <c r="P39" s="18">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
+      <c r="Q39" s="18">
+        <v>7.2</v>
+      </c>
+      <c r="R39" s="18">
+        <v>8.4</v>
+      </c>
       <c r="S39" s="2"/>
     </row>
     <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="17">
         <v>0.3</v>
@@ -2461,13 +2634,17 @@
       <c r="P40" s="18">
         <v>5.4</v>
       </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
+      <c r="Q40" s="18">
+        <v>5.9</v>
+      </c>
+      <c r="R40" s="18">
+        <v>16.899999999999999</v>
+      </c>
       <c r="S40" s="2"/>
     </row>
     <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="17">
         <v>0.3</v>
@@ -2514,13 +2691,17 @@
       <c r="P41" s="17">
         <v>2.1</v>
       </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
+      <c r="Q41" s="17">
+        <v>5</v>
+      </c>
+      <c r="R41" s="17">
+        <v>5</v>
+      </c>
       <c r="S41" s="2"/>
     </row>
     <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="17">
         <v>0.1</v>
@@ -2567,10 +2748,16 @@
       <c r="P42" s="17">
         <v>1</v>
       </c>
+      <c r="Q42" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R42" s="17">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="17">
         <v>4.5999999999999996</v>
@@ -2617,19 +2804,25 @@
       <c r="P43" s="17">
         <v>7.5</v>
       </c>
+      <c r="Q43" s="17">
+        <v>12.2</v>
+      </c>
+      <c r="R43" s="17">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="C44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E44" s="17">
         <v>0.3</v>
@@ -2638,13 +2831,13 @@
         <v>0.1</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44" s="17">
         <v>5</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J44" s="17">
         <v>0.4</v>
@@ -2667,16 +2860,22 @@
       <c r="P44" s="17">
         <v>0.7</v>
       </c>
+      <c r="Q44" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="R44" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45" s="17">
         <v>0</v>
@@ -2688,13 +2887,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H45" s="17">
         <v>0.2</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J45" s="17">
         <v>0.1</v>
@@ -2716,6 +2915,12 @@
       </c>
       <c r="P45" s="17">
         <v>0.3</v>
+      </c>
+      <c r="Q45" s="17">
+        <v>1</v>
+      </c>
+      <c r="R45" s="17">
+        <v>0.7</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
@@ -2741,7 +2946,7 @@
     </row>
     <row r="47" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2830,13 +3035,17 @@
       <c r="P49" s="9">
         <v>2020</v>
       </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
+      <c r="Q49" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R49" s="9">
+        <v>2022</v>
+      </c>
       <c r="S49" s="2"/>
     </row>
     <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="19">
         <v>7587</v>
@@ -2883,13 +3092,17 @@
       <c r="P50" s="19">
         <v>11466.4</v>
       </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
+      <c r="Q50" s="19">
+        <v>13017</v>
+      </c>
+      <c r="R50" s="19">
+        <v>13462</v>
+      </c>
       <c r="S50" s="2"/>
     </row>
     <row r="51" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" s="20">
         <v>114</v>
@@ -2936,13 +3149,17 @@
       <c r="P51" s="20">
         <v>116.5</v>
       </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
+      <c r="Q51" s="20">
+        <v>148</v>
+      </c>
+      <c r="R51" s="20">
+        <v>160</v>
+      </c>
       <c r="S51" s="2"/>
     </row>
     <row r="52" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" s="20">
         <v>139</v>
@@ -2989,13 +3206,17 @@
       <c r="P52" s="20">
         <v>168</v>
       </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
+      <c r="Q52" s="20">
+        <v>196</v>
+      </c>
+      <c r="R52" s="20">
+        <v>130</v>
+      </c>
       <c r="S52" s="2"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="20">
         <v>1497</v>
@@ -3042,13 +3263,17 @@
       <c r="P53" s="20">
         <v>2140.6999999999998</v>
       </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
+      <c r="Q53" s="20">
+        <v>2383</v>
+      </c>
+      <c r="R53" s="20">
+        <v>2677</v>
+      </c>
       <c r="S53" s="2"/>
     </row>
     <row r="54" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" s="20">
         <v>170</v>
@@ -3087,21 +3312,25 @@
         <v>223</v>
       </c>
       <c r="N54" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P54" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="Q54" s="18">
+        <v>259</v>
+      </c>
+      <c r="R54" s="18">
+        <v>266</v>
+      </c>
       <c r="S54" s="2"/>
     </row>
     <row r="55" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" s="20">
         <v>415</v>
@@ -3140,21 +3369,25 @@
         <v>246</v>
       </c>
       <c r="N55" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="Q55" s="21">
+        <v>80</v>
+      </c>
+      <c r="R55" s="21" t="s">
+        <v>4</v>
+      </c>
       <c r="S55" s="2"/>
     </row>
     <row r="56" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" s="20">
         <v>902</v>
@@ -3201,13 +3434,17 @@
       <c r="P56" s="20">
         <v>1886</v>
       </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
+      <c r="Q56" s="20">
+        <v>2115</v>
+      </c>
+      <c r="R56" s="20">
+        <v>2273</v>
+      </c>
       <c r="S56" s="2"/>
     </row>
     <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" s="20">
         <v>1232</v>
@@ -3254,13 +3491,17 @@
       <c r="P57" s="20">
         <v>2997.7</v>
       </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
+      <c r="Q57" s="20">
+        <v>3606</v>
+      </c>
+      <c r="R57" s="20">
+        <v>3676</v>
+      </c>
       <c r="S57" s="2"/>
     </row>
     <row r="58" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" s="20">
         <v>357</v>
@@ -3307,13 +3548,17 @@
       <c r="P58" s="20">
         <v>630.29999999999995</v>
       </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
+      <c r="Q58" s="20">
+        <v>830</v>
+      </c>
+      <c r="R58" s="20">
+        <v>841</v>
+      </c>
       <c r="S58" s="2"/>
     </row>
     <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59" s="20">
         <v>509</v>
@@ -3360,13 +3605,17 @@
       <c r="P59" s="20">
         <v>1460.6</v>
       </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
+      <c r="Q59" s="20">
+        <v>1653</v>
+      </c>
+      <c r="R59" s="20">
+        <v>1667</v>
+      </c>
       <c r="S59" s="2"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" s="20">
         <v>42</v>
@@ -3413,13 +3662,17 @@
       <c r="P60" s="20">
         <v>94</v>
       </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
+      <c r="Q60" s="20">
+        <v>141</v>
+      </c>
+      <c r="R60" s="20">
+        <v>171</v>
+      </c>
       <c r="S60" s="2"/>
     </row>
     <row r="61" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" s="20">
         <v>40</v>
@@ -3466,13 +3719,17 @@
       <c r="P61" s="20">
         <v>378</v>
       </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
+      <c r="Q61" s="20">
+        <v>274</v>
+      </c>
+      <c r="R61" s="20">
+        <v>277</v>
+      </c>
       <c r="S61" s="2"/>
     </row>
     <row r="62" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62" s="20">
         <v>48</v>
@@ -3519,13 +3776,17 @@
       <c r="P62" s="20">
         <v>270.5</v>
       </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
+      <c r="Q62" s="20">
+        <v>424</v>
+      </c>
+      <c r="R62" s="20">
+        <v>414</v>
+      </c>
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63" s="20">
         <v>64</v>
@@ -3572,13 +3833,17 @@
       <c r="P63" s="20">
         <v>36.200000000000003</v>
       </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
+      <c r="Q63" s="20">
+        <v>114</v>
+      </c>
+      <c r="R63" s="20">
+        <v>122</v>
+      </c>
       <c r="S63" s="2"/>
     </row>
     <row r="64" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64" s="20">
         <v>56</v>
@@ -3625,10 +3890,16 @@
       <c r="P64" s="20">
         <v>107</v>
       </c>
+      <c r="Q64" s="20">
+        <v>112</v>
+      </c>
+      <c r="R64" s="20">
+        <v>113</v>
+      </c>
     </row>
     <row r="65" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" s="20">
         <v>1949</v>
@@ -3675,19 +3946,25 @@
       <c r="P65" s="20">
         <v>565</v>
       </c>
+      <c r="Q65" s="20">
+        <v>572</v>
+      </c>
+      <c r="R65" s="20">
+        <v>546</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B66" s="21" t="s">
-        <v>22</v>
-      </c>
       <c r="C66" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" s="20">
         <v>39</v>
@@ -3696,13 +3973,13 @@
         <v>5</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H66" s="20">
         <v>67</v>
       </c>
       <c r="I66" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J66" s="20">
         <v>41</v>
@@ -3725,16 +4002,22 @@
       <c r="P66" s="20">
         <v>27</v>
       </c>
+      <c r="Q66" s="20">
+        <v>42</v>
+      </c>
+      <c r="R66" s="20">
+        <v>57</v>
+      </c>
     </row>
     <row r="67" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" s="20">
         <v>14</v>
@@ -3746,13 +4029,13 @@
         <v>26</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H67" s="20">
         <v>52</v>
       </c>
       <c r="I67" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J67" s="20">
         <v>44</v>
@@ -3774,6 +4057,12 @@
       </c>
       <c r="P67" s="20">
         <v>71</v>
+      </c>
+      <c r="Q67" s="20">
+        <v>68</v>
+      </c>
+      <c r="R67" s="20">
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
@@ -3799,7 +4088,7 @@
     </row>
     <row r="69" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -3888,13 +4177,17 @@
       <c r="P71" s="9">
         <v>2020</v>
       </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
+      <c r="Q71" s="9">
+        <v>2021</v>
+      </c>
+      <c r="R71" s="9">
+        <v>2022</v>
+      </c>
       <c r="S71" s="2"/>
     </row>
     <row r="72" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72" s="14">
         <v>192.3</v>
@@ -3941,13 +4234,17 @@
       <c r="P72" s="16">
         <v>963.1</v>
       </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
+      <c r="Q72" s="16">
+        <v>962.4</v>
+      </c>
+      <c r="R72" s="16">
+        <v>1112.4000000000001</v>
+      </c>
       <c r="S72" s="2"/>
     </row>
     <row r="73" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73" s="17">
         <v>47.2</v>
@@ -3994,13 +4291,17 @@
       <c r="P73" s="18">
         <v>485.3</v>
       </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
+      <c r="Q73" s="18">
+        <v>526.9</v>
+      </c>
+      <c r="R73" s="18">
+        <v>761.4</v>
+      </c>
       <c r="S73" s="2"/>
     </row>
     <row r="74" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B74" s="17">
         <v>646.9</v>
@@ -4047,13 +4348,17 @@
       <c r="P74" s="18">
         <v>933.5</v>
       </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
+      <c r="Q74" s="18">
+        <v>825.7</v>
+      </c>
+      <c r="R74" s="18">
+        <v>1170.5</v>
+      </c>
       <c r="S74" s="2"/>
     </row>
     <row r="75" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" s="17">
         <v>338.8</v>
@@ -4100,13 +4405,17 @@
       <c r="P75" s="18">
         <v>1592.4</v>
       </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
+      <c r="Q75" s="18">
+        <v>1643.2</v>
+      </c>
+      <c r="R75" s="18">
+        <v>1783.3</v>
+      </c>
       <c r="S75" s="2"/>
     </row>
     <row r="76" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" s="17">
         <v>378.5</v>
@@ -4145,21 +4454,25 @@
         <v>1754.4</v>
       </c>
       <c r="N76" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O76" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P76" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="Q76" s="18">
+        <v>2097</v>
+      </c>
+      <c r="R76" s="18">
+        <v>2048.1999999999998</v>
+      </c>
       <c r="S76" s="2"/>
     </row>
     <row r="77" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77" s="17">
         <v>79.400000000000006</v>
@@ -4198,21 +4511,25 @@
         <v>487.3</v>
       </c>
       <c r="N77" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O77" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P77" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="Q77" s="18">
+        <v>120.8</v>
+      </c>
+      <c r="R77" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="S77" s="2"/>
     </row>
     <row r="78" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" s="17">
         <v>372.9</v>
@@ -4259,13 +4576,17 @@
       <c r="P78" s="18">
         <v>1300</v>
       </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
+      <c r="Q78" s="18">
+        <v>1122.9000000000001</v>
+      </c>
+      <c r="R78" s="18">
+        <v>1195.5</v>
+      </c>
       <c r="S78" s="2"/>
     </row>
     <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="17">
         <v>111.8</v>
@@ -4312,13 +4633,17 @@
       <c r="P79" s="18">
         <v>508.4</v>
       </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
+      <c r="Q79" s="18">
+        <v>427.4</v>
+      </c>
+      <c r="R79" s="18">
+        <v>764.4</v>
+      </c>
       <c r="S79" s="2"/>
     </row>
     <row r="80" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80" s="17">
         <v>58.7</v>
@@ -4365,13 +4690,17 @@
       <c r="P80" s="18">
         <v>233</v>
       </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
+      <c r="Q80" s="18">
+        <v>351.9</v>
+      </c>
+      <c r="R80" s="18">
+        <v>335</v>
+      </c>
       <c r="S80" s="2"/>
     </row>
     <row r="81" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B81" s="17">
         <v>113</v>
@@ -4418,13 +4747,17 @@
       <c r="P81" s="18">
         <v>713.5</v>
       </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
+      <c r="Q81" s="18">
+        <v>871</v>
+      </c>
+      <c r="R81" s="18">
+        <v>966.8</v>
+      </c>
       <c r="S81" s="2"/>
     </row>
     <row r="82" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82" s="17">
         <v>102.6</v>
@@ -4471,13 +4804,17 @@
       <c r="P82" s="18">
         <v>544.29999999999995</v>
       </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
+      <c r="Q82" s="18">
+        <v>750.9</v>
+      </c>
+      <c r="R82" s="18">
+        <v>814.1</v>
+      </c>
       <c r="S82" s="2"/>
     </row>
     <row r="83" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B83" s="17">
         <v>86.7</v>
@@ -4524,13 +4861,17 @@
       <c r="P83" s="18">
         <v>437.9</v>
       </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
+      <c r="Q83" s="18">
+        <v>201</v>
+      </c>
+      <c r="R83" s="18">
+        <v>271.7</v>
+      </c>
       <c r="S83" s="2"/>
     </row>
     <row r="84" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B84" s="17">
         <v>251.1</v>
@@ -4577,13 +4918,17 @@
       <c r="P84" s="18">
         <v>785.7</v>
       </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
+      <c r="Q84" s="18">
+        <v>560.79999999999995</v>
+      </c>
+      <c r="R84" s="18">
+        <v>910.7</v>
+      </c>
       <c r="S84" s="2"/>
     </row>
     <row r="85" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B85" s="17">
         <v>105</v>
@@ -4630,13 +4975,17 @@
       <c r="P85" s="17">
         <v>784.9</v>
       </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
+      <c r="Q85" s="17">
+        <v>969.6</v>
+      </c>
+      <c r="R85" s="17">
+        <v>553.70000000000005</v>
+      </c>
       <c r="S85" s="2"/>
     </row>
     <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B86" s="17">
         <v>51.8</v>
@@ -4683,10 +5032,16 @@
       <c r="P86" s="17">
         <v>120</v>
       </c>
+      <c r="Q86" s="17">
+        <v>442.7</v>
+      </c>
+      <c r="R86" s="17">
+        <v>480.1</v>
+      </c>
     </row>
     <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B87" s="17">
         <v>95.6</v>
@@ -4733,19 +5088,25 @@
       <c r="P87" s="17">
         <v>598.5</v>
       </c>
+      <c r="Q87" s="17">
+        <v>646.4</v>
+      </c>
+      <c r="R87" s="17">
+        <v>701.5</v>
+      </c>
     </row>
     <row r="88" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B88" s="17" t="s">
-        <v>22</v>
-      </c>
       <c r="C88" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E88" s="17">
         <v>191.8</v>
@@ -4754,13 +5115,13 @@
         <v>132.1</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H88" s="17">
         <v>162.4</v>
       </c>
       <c r="I88" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J88" s="17">
         <v>481.6</v>
@@ -4783,16 +5144,22 @@
       <c r="P88" s="17">
         <v>345.1</v>
       </c>
+      <c r="Q88" s="17">
+        <v>223.2</v>
+      </c>
+      <c r="R88" s="17">
+        <v>389.6</v>
+      </c>
     </row>
     <row r="89" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D89" s="17">
         <v>24.5</v>
@@ -4804,13 +5171,13 @@
         <v>44.8</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H89" s="17">
         <v>64.3</v>
       </c>
       <c r="I89" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J89" s="17">
         <v>47.6</v>
@@ -4832,6 +5199,12 @@
       </c>
       <c r="P89" s="17">
         <v>130.19999999999999</v>
+      </c>
+      <c r="Q89" s="17">
+        <v>437.5</v>
+      </c>
+      <c r="R89" s="17">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
